--- a/sc0_urls.xlsx
+++ b/sc0_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>x</t>
   </si>
@@ -113,6 +113,24 @@
     <t>32</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/2c1a3b4f/Heart-of-Midlothian-Rangers-August-3-2024-Scottish-Premiership</t>
   </si>
   <si>
@@ -207,6 +225,24 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/eca23e74/St-Mirren-Heart-of-Midlothian-September-21-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9efd8a62/Heart-of-Midlothian-Ross-County-September-28-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d3bc079b/Kilmarnock-Dundee-United-September-28-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d7b2ed59/Motherwell-St-Mirren-September-28-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ed92dd8c/Dundee-Aberdeen-September-28-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a30220aa/St-Johnstone-Celtic-September-28-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fdb926ed/Rangers-Hibernian-September-29-2024-Scottish-Premiership</t>
   </si>
 </sst>
 </file>
@@ -268,7 +304,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -276,7 +312,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -284,7 +320,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -292,7 +328,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -300,7 +336,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -308,7 +344,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -316,7 +352,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -324,7 +360,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -332,7 +368,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -340,7 +376,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -348,7 +384,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -356,7 +392,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -364,7 +400,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -372,7 +408,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
@@ -380,7 +416,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -388,7 +424,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
@@ -396,7 +432,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -404,7 +440,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -412,7 +448,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
@@ -420,7 +456,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
@@ -428,7 +464,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
@@ -436,7 +472,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -444,7 +480,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
@@ -452,7 +488,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
@@ -460,7 +496,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -468,7 +504,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
@@ -476,7 +512,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -484,7 +520,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30">
@@ -492,7 +528,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31">
@@ -500,7 +536,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32">
@@ -508,7 +544,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33">
@@ -516,7 +552,55 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/sc0_urls.xlsx
+++ b/sc0_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>x</t>
   </si>
@@ -131,6 +131,42 @@
     <t>38</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/2c1a3b4f/Heart-of-Midlothian-Rangers-August-3-2024-Scottish-Premiership</t>
   </si>
   <si>
@@ -243,6 +279,42 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/fdb926ed/Rangers-Hibernian-September-29-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1bd44a80/St-Mirren-Dundee-United-October-5-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/91abdab9/Hibernian-Motherwell-October-5-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b6b34b08/Dundee-Kilmarnock-October-5-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/519d3fb9/Ross-County-Celtic-October-6-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1d50de86/Aberdeen-Heart-of-Midlothian-October-6-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1b839ace/Rangers-St-Johnstone-October-6-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/168d4a08/Motherwell-Dundee-October-19-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3bd671ec/St-Johnstone-Ross-County-October-19-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3c3fa65d/Heart-of-Midlothian-St-Mirren-October-19-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b89ef4e2/Celtic-Aberdeen-October-19-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d4e66239/Dundee-United-Hibernian-October-19-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/62a8b15b/Kilmarnock-Rangers-October-20-2024-Scottish-Premiership</t>
   </si>
 </sst>
 </file>
@@ -304,7 +376,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -312,7 +384,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -320,7 +392,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -328,7 +400,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -336,7 +408,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -344,7 +416,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -352,7 +424,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -360,7 +432,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -368,7 +440,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -376,7 +448,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -384,7 +456,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -392,7 +464,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -400,7 +472,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -408,7 +480,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
@@ -416,7 +488,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
@@ -424,7 +496,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
@@ -432,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -440,7 +512,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -448,7 +520,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
@@ -456,7 +528,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -464,7 +536,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -472,7 +544,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
@@ -480,7 +552,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -488,7 +560,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
@@ -496,7 +568,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
@@ -504,7 +576,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
@@ -512,7 +584,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -520,7 +592,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
@@ -528,7 +600,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
@@ -536,7 +608,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -544,7 +616,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
@@ -552,7 +624,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
@@ -560,7 +632,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
@@ -568,7 +640,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
@@ -576,7 +648,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
@@ -584,7 +656,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38">
@@ -592,7 +664,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
@@ -600,7 +672,103 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/sc0_urls.xlsx
+++ b/sc0_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>x</t>
   </si>
@@ -167,6 +167,54 @@
     <t>50</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/2c1a3b4f/Heart-of-Midlothian-Rangers-August-3-2024-Scottish-Premiership</t>
   </si>
   <si>
@@ -315,6 +363,54 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/62a8b15b/Kilmarnock-Rangers-October-20-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/18f3e515/Dundee-St-Johnstone-October-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d1729397/Ross-County-Kilmarnock-October-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/41db5901/Aberdeen-Dundee-United-October-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ecf8e68d/Hibernian-Heart-of-Midlothian-October-27-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/010d7a20/Rangers-St-Mirren-October-27-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a3103c61/Motherwell-Celtic-October-27-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/243c9ff0/Heart-of-Midlothian-Kilmarnock-October-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5e06d4fa/Celtic-Dundee-October-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9066db1d/Ross-County-Hibernian-October-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b8e6969e/St-Mirren-St-Johnstone-October-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fb394c66/Dundee-United-Motherwell-October-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2bc330fa/Aberdeen-Rangers-October-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8bbb8de8/St-Johnstone-Heart-of-Midlothian-November-2-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a4bf38d9/St-Mirren-Ross-County-November-2-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/836d1bf4/Hibernian-Dundee-United-November-3-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c1b32f12/Dundee-Kilmarnock-November-3-2024-Scottish-Premiership</t>
   </si>
 </sst>
 </file>
@@ -376,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -392,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -400,7 +496,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -408,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -416,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -424,7 +520,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -432,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -440,7 +536,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -448,7 +544,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -456,7 +552,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -464,7 +560,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -472,7 +568,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -480,7 +576,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -488,7 +584,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
@@ -496,7 +592,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -504,7 +600,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -512,7 +608,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
@@ -520,7 +616,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -528,7 +624,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -536,7 +632,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -544,7 +640,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -552,7 +648,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -560,7 +656,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
@@ -568,7 +664,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
@@ -576,7 +672,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
@@ -584,7 +680,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
@@ -592,7 +688,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
@@ -600,7 +696,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
@@ -608,7 +704,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
@@ -616,7 +712,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33">
@@ -624,7 +720,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34">
@@ -632,7 +728,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35">
@@ -640,7 +736,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -648,7 +744,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
@@ -656,7 +752,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38">
@@ -664,7 +760,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
@@ -672,7 +768,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
@@ -680,7 +776,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41">
@@ -688,7 +784,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
@@ -696,7 +792,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43">
@@ -704,7 +800,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44">
@@ -712,7 +808,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45">
@@ -720,7 +816,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
@@ -728,7 +824,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47">
@@ -736,7 +832,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48">
@@ -744,7 +840,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49">
@@ -752,7 +848,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50">
@@ -760,7 +856,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51">
@@ -768,7 +864,135 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/sc0_urls.xlsx
+++ b/sc0_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>x</t>
   </si>
@@ -215,6 +215,102 @@
     <t>66</t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/2c1a3b4f/Heart-of-Midlothian-Rangers-August-3-2024-Scottish-Premiership</t>
   </si>
   <si>
@@ -411,6 +507,102 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/c1b32f12/Dundee-Kilmarnock-November-3-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0ca6d764/Motherwell-St-Johnstone-November-9-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/37bdcada/Dundee-United-Ross-County-November-9-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8fb2341b/Hibernian-St-Mirren-November-9-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fddc2b46/Aberdeen-Dundee-November-9-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6516043c/Kilmarnock-Celtic-November-10-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ea1763a1/Rangers-Heart-of-Midlothian-November-10-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2599fc31/St-Johnstone-Kilmarnock-November-23-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4c5a8bca/Ross-County-Motherwell-November-23-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1aaa7ff5/Rangers-Dundee-United-November-23-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/02a66349/St-Mirren-Aberdeen-November-23-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6b29cde7/Dundee-Hibernian-November-23-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/40327842/Heart-of-Midlothian-Celtic-November-23-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7b93868a/Hibernian-Aberdeen-November-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2316c31e/Kilmarnock-Dundee-November-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4c74869f/Celtic-Ross-County-November-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/984b304b/Motherwell-Hibernian-November-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e61740ec/Dundee-United-St-Mirren-November-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/32ef90a0/St-Johnstone-Rangers-December-1-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d458bfa7/Heart-of-Midlothian-Aberdeen-December-1-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c8ca48b7/Dundee-Motherwell-December-4-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f63926a0/Rangers-Kilmarnock-December-4-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5b3864df/Aberdeen-Celtic-December-4-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/32dd944a/Heart-of-Midlothian-Dundee-December-7-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/912d8208/Dundee-United-Kilmarnock-December-7-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bc87d012/St-Mirren-Motherwell-December-7-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d042afb3/Aberdeen-St-Johnstone-December-7-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/da6ed2c3/Celtic-Hibernian-December-7-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/33bc939b/Ross-County-Rangers-December-8-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1ebb323f/St-Johnstone-St-Mirren-December-14-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7c8f9957/Hibernian-Ross-County-December-14-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/94d0e535/Motherwell-Dundee-United-December-14-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/660023b3/Kilmarnock-Heart-of-Midlothian-December-15-2024-Scottish-Premiership</t>
   </si>
 </sst>
 </file>
@@ -472,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -488,7 +680,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
@@ -496,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
@@ -504,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
@@ -512,7 +704,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
@@ -520,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -528,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -536,7 +728,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -544,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
@@ -560,7 +752,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -568,7 +760,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
@@ -576,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
@@ -584,7 +776,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -592,7 +784,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +792,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
@@ -608,7 +800,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20">
@@ -616,7 +808,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21">
@@ -624,7 +816,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22">
@@ -632,7 +824,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23">
@@ -640,7 +832,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
@@ -648,7 +840,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
@@ -656,7 +848,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26">
@@ -664,7 +856,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
@@ -672,7 +864,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
@@ -680,7 +872,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
@@ -688,7 +880,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
@@ -696,7 +888,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31">
@@ -704,7 +896,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
@@ -712,7 +904,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33">
@@ -720,7 +912,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -728,7 +920,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35">
@@ -736,7 +928,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36">
@@ -744,7 +936,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37">
@@ -752,7 +944,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38">
@@ -760,7 +952,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39">
@@ -768,7 +960,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40">
@@ -776,7 +968,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41">
@@ -784,7 +976,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42">
@@ -792,7 +984,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43">
@@ -800,7 +992,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44">
@@ -808,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45">
@@ -816,7 +1008,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46">
@@ -824,7 +1016,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47">
@@ -832,7 +1024,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48">
@@ -840,7 +1032,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49">
@@ -848,7 +1040,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50">
@@ -856,7 +1048,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51">
@@ -864,7 +1056,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52">
@@ -872,7 +1064,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53">
@@ -880,7 +1072,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54">
@@ -888,7 +1080,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55">
@@ -896,7 +1088,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56">
@@ -904,7 +1096,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57">
@@ -912,7 +1104,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58">
@@ -920,7 +1112,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59">
@@ -928,7 +1120,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60">
@@ -936,7 +1128,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61">
@@ -944,7 +1136,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62">
@@ -952,7 +1144,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63">
@@ -960,7 +1152,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64">
@@ -968,7 +1160,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65">
@@ -976,7 +1168,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66">
@@ -984,7 +1176,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67">
@@ -992,7 +1184,263 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/sc0_urls.xlsx
+++ b/sc0_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
   <si>
     <t>x</t>
   </si>
@@ -311,6 +311,228 @@
     <t>98</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/2c1a3b4f/Heart-of-Midlothian-Rangers-August-3-2024-Scottish-Premiership</t>
   </si>
   <si>
@@ -603,6 +825,228 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/660023b3/Kilmarnock-Heart-of-Midlothian-December-15-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/61d10da7/Motherwell-Kilmarnock-December-20-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a03f638c/Aberdeen-Hibernian-December-21-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/da9f30c3/Rangers-Dundee-December-21-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ebf92363/Ross-County-St-Mirren-December-21-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4eb31d30/Dundee-United-Celtic-December-22-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fd30c2c8/Heart-of-Midlothian-St-Johnstone-December-22-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5f32bc59/Heart-of-Midlothian-Hibernian-December-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2d98e4f1/St-Johnstone-Dundee-United-December-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/377cdd1e/Kilmarnock-Aberdeen-December-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3d045017/Celtic-Motherwell-December-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fa3d2759/Dundee-Ross-County-December-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e532f712/St-Mirren-Rangers-December-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/190fc5ef/Celtic-St-Johnstone-December-29-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7c89743b/St-Mirren-Dundee-December-29-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7e37ddf0/Ross-County-Heart-of-Midlothian-December-29-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/88614304/Motherwell-Rangers-December-29-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9d62990c/Hibernian-Kilmarnock-December-29-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e83b0ccb/Dundee-United-Aberdeen-December-29-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/05f4ed4c/Old-Firm-Derby-Rangers-Celtic-January-2-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/840ef9c9/St-Johnstone-Hibernian-January-2-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/940ef160/Heart-of-Midlothian-Motherwell-January-2-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cea70176/Aberdeen-Ross-County-January-2-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e9c07aa0/Kilmarnock-St-Mirren-January-2-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/372f087d/Dundee-Dundee-United-January-2-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ea44287b/Hibernian-Rangers-January-5-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e6e0081b/Motherwell-Aberdeen-January-5-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1c66a7c9/Celtic-St-Mirren-January-5-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/57e8c0b0/Dundee-United-Heart-of-Midlothian-January-5-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9b7e92cb/St-Johnstone-Dundee-January-5-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/edbffc0c/Kilmarnock-Ross-County-January-5-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/308f66e0/Kilmarnock-Motherwell-January-8-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3da36d25/Celtic-Dundee-United-January-8-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9b632d5a/Dundee-Rangers-January-9-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/152af068/Ross-County-Celtic-January-11-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/aaca1e27/St-Mirren-Dundee-United-January-11-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e2a8d725/Hibernian-Motherwell-January-11-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/78f14c19/Aberdeen-Heart-of-Midlothian-January-12-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a02065d3/Rangers-St-Johnstone-January-12-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/615ed3c7/Dundee-Celtic-January-14-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ac81a486/Rangers-Aberdeen-January-15-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3637272e/Ross-County-Hibernian-January-25-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/90014a11/St-Johnstone-Motherwell-January-25-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d79cd451/Aberdeen-St-Mirren-January-25-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e531ac9a/Heart-of-Midlothian-Kilmarnock-January-25-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/30670ab2/Dundee-United-Rangers-January-26-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0757dc49/St-Mirren-St-Johnstone-February-1-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/300f7d2e/Dundee-Heart-of-Midlothian-February-1-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3ad7bc5e/Hibernian-Aberdeen-February-1-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8cd0becf/Kilmarnock-Dundee-United-February-1-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8fdc1242/Motherwell-Celtic-February-2-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a56e29c2/Rangers-Ross-County-February-2-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/66f78d4e/Celtic-Dundee-February-5-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6a1f684d/Celtic-Dundee-United-February-15-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6ec02fb0/Dundee-Aberdeen-February-15-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d0ae9d90/Motherwell-Ross-County-February-15-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d5d17424/Kilmarnock-St-Johnstone-February-15-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ec8d1ecf/Heart-of-Midlothian-Rangers-February-16-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/82221e6e/St-Mirren-Hibernian-February-16-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0b62e5ac/Hibernian-Celtic-February-22-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3755a2f2/Rangers-St-Mirren-February-22-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a4110188/Ross-County-Dundee-February-22-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cb800241/Dundee-United-Motherwell-February-22-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ea261585/Aberdeen-Kilmarnock-February-22-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/baa42a3b/St-Johnstone-Heart-of-Midlothian-February-23-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/45ca22a8/Celtic-Aberdeen-February-25-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3080b5be/Heart-of-Midlothian-St-Mirren-February-26-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/594a122d/St-Johnstone-Ross-County-February-26-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b3ab6338/Dundee-United-Hibernian-February-26-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c138d483/Motherwell-Dundee-February-26-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1e557ac5/Kilmarnock-Rangers-February-26-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/50f69ff9/Rangers-Motherwell-March-1-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bd56f1be/Dundee-St-Johnstone-March-1-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ea15fb4e/Ross-County-Kilmarnock-March-1-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5dd5b07f/St-Mirren-Celtic-March-1-2025-Scottish-Premiership</t>
   </si>
 </sst>
 </file>
@@ -664,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
@@ -672,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4">
@@ -680,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
@@ -688,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
@@ -696,7 +1140,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7">
@@ -704,7 +1148,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8">
@@ -712,7 +1156,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
@@ -720,7 +1164,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
@@ -728,7 +1172,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11">
@@ -736,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12">
@@ -744,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13">
@@ -752,7 +1196,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14">
@@ -760,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
@@ -768,7 +1212,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
@@ -776,7 +1220,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
@@ -784,7 +1228,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +1236,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
@@ -800,7 +1244,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
@@ -808,7 +1252,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
@@ -816,7 +1260,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22">
@@ -824,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
@@ -832,7 +1276,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24">
@@ -840,7 +1284,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25">
@@ -848,7 +1292,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26">
@@ -856,7 +1300,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
@@ -864,7 +1308,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
@@ -872,7 +1316,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29">
@@ -880,7 +1324,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
@@ -888,7 +1332,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31">
@@ -896,7 +1340,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32">
@@ -904,7 +1348,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33">
@@ -912,7 +1356,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34">
@@ -920,7 +1364,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35">
@@ -928,7 +1372,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36">
@@ -936,7 +1380,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37">
@@ -944,7 +1388,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38">
@@ -952,7 +1396,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39">
@@ -960,7 +1404,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40">
@@ -968,7 +1412,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41">
@@ -976,7 +1420,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42">
@@ -984,7 +1428,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43">
@@ -992,7 +1436,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44">
@@ -1000,7 +1444,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45">
@@ -1008,7 +1452,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46">
@@ -1016,7 +1460,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47">
@@ -1024,7 +1468,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48">
@@ -1032,7 +1476,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49">
@@ -1040,7 +1484,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50">
@@ -1048,7 +1492,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51">
@@ -1056,7 +1500,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52">
@@ -1064,7 +1508,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53">
@@ -1072,7 +1516,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54">
@@ -1080,7 +1524,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55">
@@ -1088,7 +1532,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56">
@@ -1096,7 +1540,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57">
@@ -1104,7 +1548,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>154</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58">
@@ -1112,7 +1556,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59">
@@ -1120,7 +1564,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60">
@@ -1128,7 +1572,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61">
@@ -1136,7 +1580,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62">
@@ -1144,7 +1588,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63">
@@ -1152,7 +1596,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64">
@@ -1160,7 +1604,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65">
@@ -1168,7 +1612,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66">
@@ -1176,7 +1620,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67">
@@ -1184,7 +1628,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68">
@@ -1192,7 +1636,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69">
@@ -1200,7 +1644,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70">
@@ -1208,7 +1652,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71">
@@ -1216,7 +1660,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72">
@@ -1224,7 +1668,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73">
@@ -1232,7 +1676,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74">
@@ -1240,7 +1684,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>171</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75">
@@ -1248,7 +1692,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76">
@@ -1256,7 +1700,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>173</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77">
@@ -1264,7 +1708,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>174</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78">
@@ -1272,7 +1716,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79">
@@ -1280,7 +1724,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80">
@@ -1288,7 +1732,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>177</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81">
@@ -1296,7 +1740,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82">
@@ -1304,7 +1748,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83">
@@ -1312,7 +1756,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84">
@@ -1320,7 +1764,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85">
@@ -1328,7 +1772,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86">
@@ -1336,7 +1780,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>183</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87">
@@ -1344,7 +1788,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>184</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88">
@@ -1352,7 +1796,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89">
@@ -1360,7 +1804,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>186</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90">
@@ -1368,7 +1812,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91">
@@ -1376,7 +1820,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92">
@@ -1384,7 +1828,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>189</v>
+        <v>263</v>
       </c>
     </row>
     <row r="93">
@@ -1392,7 +1836,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94">
@@ -1400,7 +1844,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95">
@@ -1408,7 +1852,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96">
@@ -1416,7 +1860,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97">
@@ -1424,7 +1868,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98">
@@ -1432,7 +1876,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99">
@@ -1440,7 +1884,599 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
